--- a/再来亿杯第一赛季运动员信息表.xlsx
+++ b/再来亿杯第一赛季运动员信息表.xlsx
@@ -1149,7 +1149,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -1383,7 +1383,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -1560,7 +1560,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="0" t="n">
@@ -1986,7 +1986,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
